--- a/Entregables/09_Proyecto Análisis/Modelo de datos deseado.xlsx
+++ b/Entregables/09_Proyecto Análisis/Modelo de datos deseado.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel\Desktop\TheBridgeDataScientist\TareasTheBridge\Entregables\09_Proyecto Análisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B358A3DE-183A-4928-9EB7-B77C8C9ECC3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B358A3DE-183A-4928-9EB7-B77C8C9ECC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14156957-73A9-4790-8C2E-1744ED6D4B74}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1110" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Municipio</t>
   </si>
@@ -48,6 +48,30 @@
     <t>lat</t>
   </si>
   <si>
+    <t>Censo</t>
+  </si>
+  <si>
+    <t>Contabilizados</t>
+  </si>
+  <si>
+    <t>% contabilizados</t>
+  </si>
+  <si>
+    <t>Abstenciones</t>
+  </si>
+  <si>
+    <t>% abstenciones</t>
+  </si>
+  <si>
+    <t>Nulos</t>
+  </si>
+  <si>
+    <t>% Nulos</t>
+  </si>
+  <si>
+    <t>Bares y Rest/habitante</t>
+  </si>
+  <si>
     <t>PP-2021</t>
   </si>
   <si>
@@ -57,9 +81,6 @@
     <t>PP-Delta</t>
   </si>
   <si>
-    <t>Bares y Rest/habitante</t>
-  </si>
-  <si>
     <t>PSOE-2021</t>
   </si>
   <si>
@@ -97,34 +118,13 @@
   </si>
   <si>
     <t>Algete</t>
-  </si>
-  <si>
-    <t>Abstenciones</t>
-  </si>
-  <si>
-    <t>Censo</t>
-  </si>
-  <si>
-    <t>Contabilizados</t>
-  </si>
-  <si>
-    <t>Nulos</t>
-  </si>
-  <si>
-    <t>% contabilizados</t>
-  </si>
-  <si>
-    <t>% abstenciones</t>
-  </si>
-  <si>
-    <t>% Nulos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,18 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F4:AF5"/>
+  <dimension ref="F4:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -471,7 +471,7 @@
     <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:32">
       <c r="F4" t="s">
         <v>0</v>
       </c>
@@ -485,78 +485,78 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AC4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AD4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="AF4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
+    </row>
+    <row r="5" spans="6:32">
+      <c r="F5" t="s">
         <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
       <c r="J5">
         <v>14659</v>
@@ -628,6 +628,141 @@
       <c r="AF5">
         <f>AD5-AE5</f>
         <v>0.50999999999999979</v>
+      </c>
+    </row>
+    <row r="11" spans="6:32">
+      <c r="AA11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:32">
+      <c r="AA12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="6:32">
+      <c r="AA13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="6:32">
+      <c r="AA14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:32">
+      <c r="AA15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="6:32">
+      <c r="AA16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="27:27">
+      <c r="AA17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="27:27">
+      <c r="AA18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="27:27">
+      <c r="AA19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="27:27">
+      <c r="AA20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="27:27">
+      <c r="AA21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="27:27">
+      <c r="AA22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="27:27">
+      <c r="AA23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="27:27">
+      <c r="AA24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="27:27">
+      <c r="AA25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="27:27">
+      <c r="AA26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="27:27">
+      <c r="AA27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="27:27">
+      <c r="AA28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="27:27">
+      <c r="AA29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="27:27">
+      <c r="AA30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="27:27">
+      <c r="AA31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="27:27">
+      <c r="AA32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="27:27">
+      <c r="AA33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="27:27">
+      <c r="AA34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="27:27">
+      <c r="AA35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="27:27">
+      <c r="AA36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="27:27">
+      <c r="AA37" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Entregables/09_Proyecto Análisis/Modelo de datos deseado.xlsx
+++ b/Entregables/09_Proyecto Análisis/Modelo de datos deseado.xlsx
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F4:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
